--- a/الملاحظات.xlsx
+++ b/الملاحظات.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="29-8-2021" sheetId="1" r:id="rId1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -755,9 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="103.6640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
